--- a/2 course/2 term/circuit design/labs/lab 1/Лист Microsoft Excel.xlsx
+++ b/2 course/2 term/circuit design/labs/lab 1/Лист Microsoft Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\_delete\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\education\2 course\2 term\circuit design\labs\lab 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2663C01-B071-4F59-A510-7F096C93DBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21D14AB-DACC-490F-9915-07971FB4CF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14115" yWindow="-21600" windowWidth="25800" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -98,12 +98,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -384,176 +576,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I6" sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
+    <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
